--- a/Depth Damaged States Attenuation Model - Orientation =  30, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  30, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.1620652020134434</v>
+        <v>-0.09604866752742558</v>
       </c>
       <c r="C2">
-        <v>0.2187206475169237</v>
+        <v>-0.2051611755279131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>0.4379856565735792</v>
+        <v>-0.2620242827054002</v>
       </c>
       <c r="C3">
-        <v>0.05791402729800753</v>
+        <v>-0.5567197273228244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.5486990342799715</v>
+        <v>-0.2264729653632841</v>
       </c>
       <c r="C4">
-        <v>-0.5414127064664978</v>
+        <v>-0.01064773026437103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-6.75580638371992E-05</v>
+        <v>0.3397273705783637</v>
       </c>
       <c r="C5">
-        <v>-0.1704110373428295</v>
+        <v>-0.4209851171209288</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.4175121237563079</v>
+        <v>-0.5024545140173816</v>
       </c>
       <c r="C6">
-        <v>0.4576730775183779</v>
+        <v>-0.3191206482617719</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.4516963040984347</v>
+        <v>-0.1608068732529925</v>
       </c>
       <c r="C7">
-        <v>0.1065283431209359</v>
+        <v>-0.1850300299348308</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.04186278257365208</v>
+        <v>0.1479190898505301</v>
       </c>
       <c r="C8">
-        <v>0.1720318946615404</v>
+        <v>-0.1652696216258207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.0330778597629735</v>
+        <v>-0.04126112377577518</v>
       </c>
       <c r="C9">
-        <v>-0.2890031682093185</v>
+        <v>-0.09912481737059048</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.07392031543840576</v>
+        <v>0.2356590894368341</v>
       </c>
       <c r="C10">
-        <v>0.1106884094272952</v>
+        <v>0.2131754087559259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.1293029804940576</v>
+        <v>-0.5092295915877625</v>
       </c>
       <c r="C11">
-        <v>-0.008775620063138766</v>
+        <v>0.289107960977763</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.005113170302498599</v>
+        <v>-0.1685846637637685</v>
       </c>
       <c r="C12">
-        <v>0.4449663605488068</v>
+        <v>0.3594981498025291</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.1021943147972707</v>
+        <v>0.1075963397527032</v>
       </c>
       <c r="C13">
-        <v>-0.2355611899418145</v>
+        <v>-0.1576161664434762</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.1730995391015492</v>
+        <v>-0.2738559048800113</v>
       </c>
       <c r="C14">
-        <v>0.155803884760107</v>
+        <v>0.04645526402658837</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>0.185834074634281</v>
+        <v>-0.06274528781670646</v>
       </c>
       <c r="C15">
-        <v>0.01419018413200216</v>
+        <v>-0.002042344924774836</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>-0.009154131450517841</v>
+        <v>0.1319776103530128</v>
       </c>
       <c r="C16">
-        <v>-0.03231972561419096</v>
+        <v>-0.01771674187207919</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.04904477562129669</v>
+        <v>0.04807753920908057</v>
       </c>
       <c r="C17">
-        <v>-0.03708122731866029</v>
+        <v>-0.1087714465602982</v>
       </c>
     </row>
   </sheetData>
